--- a/ConfigData/Xlsx/EquipSlot.xlsx
+++ b/ConfigData/Xlsx/EquipSlot.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -47,18 +47,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>建筑1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>旗帜</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>建筑2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>武器</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -79,10 +71,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>建筑3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -108,6 +96,18 @@
   </si>
   <si>
     <t>旗帜可以提供强大的辅助效果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>附楼1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>附楼2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>附楼3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1150,10 +1150,10 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1189,13 +1189,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1203,13 +1203,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1217,13 +1217,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -1231,13 +1231,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1245,13 +1245,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1259,13 +1259,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1273,13 +1273,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1287,13 +1287,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1301,13 +1301,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/EquipSlot.xlsx
+++ b/ConfigData/Xlsx/EquipSlot.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,7 +12,7 @@
     <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
-    <sheet name="Slot" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -21,93 +21,77 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>附楼1</t>
+  </si>
+  <si>
+    <t>各种建筑可以提供辅助作用</t>
+  </si>
+  <si>
+    <t>旗帜</t>
+  </si>
+  <si>
+    <t>旗帜可以提供强大的辅助效果</t>
+  </si>
+  <si>
+    <t>附楼2</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>添加武器，可以提升主城攻击力</t>
+  </si>
+  <si>
+    <t>主楼</t>
+  </si>
+  <si>
+    <t>需要先装备主楼，才能添加其他设施</t>
+  </si>
+  <si>
+    <t>城墙</t>
+  </si>
+  <si>
+    <t>建设城防，可以提升主城防御力</t>
+  </si>
+  <si>
+    <t>武器2</t>
+  </si>
+  <si>
+    <t>附楼3</t>
+  </si>
+  <si>
+    <t>城墙2</t>
+  </si>
+  <si>
+    <t>序列</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>旗帜</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>主楼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>城墙</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>城墙2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Des</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要先装备主楼，才能添加其他设施</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加武器，可以提升主城攻击力</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设城防，可以提升主城防御力</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>各种建筑可以提供辅助作用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>旗帜可以提供强大的辅助效果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>附楼1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>附楼2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>附楼3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -597,6 +581,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,10 +725,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -783,6 +778,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -795,8 +858,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D12" totalsRowShown="0">
-  <autoFilter ref="A1:D12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:D12" totalsRowShown="0">
+  <autoFilter ref="A3:D12"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
@@ -815,7 +878,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1131,57 +1194,57 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="6.875" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1189,13 +1252,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1203,13 +1266,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1217,13 +1280,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -1231,13 +1294,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1245,13 +1308,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1259,13 +1322,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1273,13 +1336,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1287,13 +1350,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1301,21 +1364,20 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ConfigData/Xlsx/EquipSlot.xlsx
+++ b/ConfigData/Xlsx/EquipSlot.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -92,6 +92,22 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置y</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -858,13 +874,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:D12" totalsRowShown="0">
-  <autoFilter ref="A3:D12"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:F12" totalsRowShown="0">
+  <autoFilter ref="A3:F12"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="4" name="Des"/>
+    <tableColumn id="5" name="PosX"/>
+    <tableColumn id="6" name="PosY"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1191,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1205,7 +1223,7 @@
     <col min="4" max="4" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1218,8 +1236,14 @@
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1232,8 +1256,14 @@
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1246,8 +1276,14 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1260,8 +1296,14 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="E4">
+        <v>380</v>
+      </c>
+      <c r="F4">
+        <v>310</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1274,8 +1316,14 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="E5">
+        <v>136</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1288,8 +1336,14 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
+      <c r="E6">
+        <v>508</v>
+      </c>
+      <c r="F6">
+        <v>246</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1302,8 +1356,14 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
+      <c r="E7">
+        <v>520</v>
+      </c>
+      <c r="F7">
+        <v>68</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1316,8 +1376,14 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
+      <c r="E8">
+        <v>215</v>
+      </c>
+      <c r="F8">
+        <v>160</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1330,8 +1396,14 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
+      <c r="E9">
+        <v>230</v>
+      </c>
+      <c r="F9">
+        <v>370</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1344,8 +1416,14 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
+      <c r="E10">
+        <v>647</v>
+      </c>
+      <c r="F10">
+        <v>68</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1358,8 +1436,14 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
+      <c r="E11">
+        <v>640</v>
+      </c>
+      <c r="F11">
+        <v>240</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1371,13 +1455,20 @@
       </c>
       <c r="D12" t="s">
         <v>14</v>
+      </c>
+      <c r="E12">
+        <v>486</v>
+      </c>
+      <c r="F12">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>